--- a/Code/Results/Cases/Case_8_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.053047837890233</v>
+        <v>0.9338552665848852</v>
       </c>
       <c r="C2">
-        <v>0.313969316810244</v>
+        <v>0.3637443484020082</v>
       </c>
       <c r="D2">
-        <v>0.04195436618358173</v>
+        <v>0.05948401559084004</v>
       </c>
       <c r="E2">
-        <v>0.05984804214558181</v>
+        <v>0.07238313480046443</v>
       </c>
       <c r="F2">
-        <v>1.811633910793233</v>
+        <v>1.51730548682032</v>
       </c>
       <c r="G2">
-        <v>0.0008424325736369706</v>
+        <v>0.04169464788815613</v>
       </c>
       <c r="H2">
-        <v>0.01436129655287494</v>
+        <v>0.008119689599915048</v>
       </c>
       <c r="I2">
-        <v>0.01514577631164427</v>
+        <v>0.006250156314638211</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9194020338108757</v>
+        <v>0.7054126243458754</v>
       </c>
       <c r="L2">
-        <v>0.09712091666553846</v>
+        <v>0.3010440165399189</v>
       </c>
       <c r="M2">
-        <v>1.348358525820203</v>
+        <v>0.2303757808712064</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.105145901297</v>
       </c>
       <c r="O2">
-        <v>0.3884196752727078</v>
+        <v>1.291952603287712</v>
       </c>
       <c r="P2">
-        <v>1.66939586404321</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3862711927839939</v>
+      </c>
+      <c r="R2">
+        <v>1.361563389092574</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9186916369639562</v>
+        <v>0.8171779683565035</v>
       </c>
       <c r="C3">
-        <v>0.2761741739936667</v>
+        <v>0.3163466243430264</v>
       </c>
       <c r="D3">
-        <v>0.03651137329436693</v>
+        <v>0.05195078987043189</v>
       </c>
       <c r="E3">
-        <v>0.05248925055249387</v>
+        <v>0.06458883090544987</v>
       </c>
       <c r="F3">
-        <v>1.70591527227819</v>
+        <v>1.429380961325009</v>
       </c>
       <c r="G3">
-        <v>0.00084657982078995</v>
+        <v>0.0491884256574584</v>
       </c>
       <c r="H3">
-        <v>0.01867751530042794</v>
+        <v>0.01092589691212758</v>
       </c>
       <c r="I3">
-        <v>0.01939951651955196</v>
+        <v>0.008312173715582016</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8818199177752888</v>
+        <v>0.679939577042191</v>
       </c>
       <c r="L3">
-        <v>0.08597938028616881</v>
+        <v>0.2985037775556947</v>
       </c>
       <c r="M3">
-        <v>1.178585949605093</v>
+        <v>0.2153298830059178</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09480975797686853</v>
       </c>
       <c r="O3">
-        <v>0.3404296124351163</v>
+        <v>1.127710824456955</v>
       </c>
       <c r="P3">
-        <v>1.677414749311133</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3385678955350997</v>
+      </c>
+      <c r="R3">
+        <v>1.377727938575937</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8360399884572871</v>
+        <v>0.745028244534069</v>
       </c>
       <c r="C4">
-        <v>0.2534106842380481</v>
+        <v>0.2876493803140079</v>
       </c>
       <c r="D4">
-        <v>0.03321404109837545</v>
+        <v>0.04739599965827068</v>
       </c>
       <c r="E4">
-        <v>0.04799800592276071</v>
+        <v>0.0598199980962093</v>
       </c>
       <c r="F4">
-        <v>1.641459189263941</v>
+        <v>1.375345432024204</v>
       </c>
       <c r="G4">
-        <v>0.0008492145845403142</v>
+        <v>0.05426646348870467</v>
       </c>
       <c r="H4">
-        <v>0.021714774173901</v>
+        <v>0.01292851532113282</v>
       </c>
       <c r="I4">
-        <v>0.02241197087241087</v>
+        <v>0.009826456153504193</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.858812330781376</v>
+        <v>0.6641024922450498</v>
       </c>
       <c r="L4">
-        <v>0.07914401016071082</v>
+        <v>0.2966772820668098</v>
       </c>
       <c r="M4">
-        <v>1.074662605538236</v>
+        <v>0.2067326923381252</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.08843819439318423</v>
       </c>
       <c r="O4">
-        <v>0.3110228099136947</v>
+        <v>1.026764969818402</v>
       </c>
       <c r="P4">
-        <v>1.682456237296101</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3092889119897464</v>
+      </c>
+      <c r="R4">
+        <v>1.387599886375554</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8013558426561929</v>
+        <v>0.7146395706712667</v>
       </c>
       <c r="C5">
-        <v>0.244600725210347</v>
+        <v>0.2764167254973984</v>
       </c>
       <c r="D5">
-        <v>0.03197403826685274</v>
+        <v>0.04566001301113687</v>
       </c>
       <c r="E5">
-        <v>0.04620277005688678</v>
+        <v>0.05790958591754958</v>
       </c>
       <c r="F5">
-        <v>1.613823458958464</v>
+        <v>1.352008172780842</v>
       </c>
       <c r="G5">
-        <v>0.0008503188339113151</v>
+        <v>0.05646787052168745</v>
       </c>
       <c r="H5">
-        <v>0.0230538225484006</v>
+        <v>0.0138171128388595</v>
       </c>
       <c r="I5">
-        <v>0.02383526776533884</v>
+        <v>0.01060423877363803</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8484149465745858</v>
+        <v>0.6567345384575347</v>
       </c>
       <c r="L5">
-        <v>0.07633322669291687</v>
+        <v>0.295487520612987</v>
       </c>
       <c r="M5">
-        <v>1.031926597940071</v>
+        <v>0.2031205994755716</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08581067125842878</v>
       </c>
       <c r="O5">
-        <v>0.2990147920192285</v>
+        <v>0.9851751333540903</v>
       </c>
       <c r="P5">
-        <v>1.683289570019731</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2973241686411825</v>
+      </c>
+      <c r="R5">
+        <v>1.390636794761782</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7944239218971063</v>
+        <v>0.7085383586320972</v>
       </c>
       <c r="C6">
-        <v>0.2435894426639891</v>
+        <v>0.2750069788448855</v>
       </c>
       <c r="D6">
-        <v>0.03188321010807016</v>
+        <v>0.04549925381352438</v>
       </c>
       <c r="E6">
-        <v>0.04594103175523756</v>
+        <v>0.05762870761202166</v>
       </c>
       <c r="F6">
-        <v>1.607441884244579</v>
+        <v>1.346545924553212</v>
       </c>
       <c r="G6">
-        <v>0.0008505133306536597</v>
+        <v>0.05686013508130827</v>
       </c>
       <c r="H6">
-        <v>0.02329115369983525</v>
+        <v>0.01397459080133884</v>
       </c>
       <c r="I6">
-        <v>0.02420540673441884</v>
+        <v>0.01086877939025399</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8454249037315904</v>
+        <v>0.6544538870603063</v>
       </c>
       <c r="L6">
-        <v>0.07583605002530902</v>
+        <v>0.2948247833790134</v>
       </c>
       <c r="M6">
-        <v>1.024282572130346</v>
+        <v>0.2022015247257798</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08534506103011097</v>
       </c>
       <c r="O6">
-        <v>0.296978145198139</v>
+        <v>0.9777542792263603</v>
       </c>
       <c r="P6">
-        <v>1.681906788823689</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.295296681229523</v>
+      </c>
+      <c r="R6">
+        <v>1.389956813133089</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8323657394690258</v>
+        <v>0.7394208467650287</v>
       </c>
       <c r="C7">
-        <v>0.2545103639316153</v>
+        <v>0.2858755008742833</v>
       </c>
       <c r="D7">
-        <v>0.03351056442453881</v>
+        <v>0.04843206098455255</v>
       </c>
       <c r="E7">
-        <v>0.04807245858992459</v>
+        <v>0.0601271938595751</v>
       </c>
       <c r="F7">
-        <v>1.636172772507194</v>
+        <v>1.362355728897469</v>
       </c>
       <c r="G7">
-        <v>0.000849255670862041</v>
+        <v>0.05496297778684456</v>
       </c>
       <c r="H7">
-        <v>0.02175692650677441</v>
+        <v>0.01298781213554415</v>
       </c>
       <c r="I7">
-        <v>0.02276147238777337</v>
+        <v>0.01021129861470982</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8552180224057651</v>
+        <v>0.656996564132406</v>
       </c>
       <c r="L7">
-        <v>0.07902286305688477</v>
+        <v>0.2936492577759182</v>
       </c>
       <c r="M7">
-        <v>1.072574554073327</v>
+        <v>0.2044438709175616</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.08822673420642957</v>
       </c>
       <c r="O7">
-        <v>0.3107420473535711</v>
+        <v>1.019447077888344</v>
       </c>
       <c r="P7">
-        <v>1.678324165709299</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3083114423213402</v>
+      </c>
+      <c r="R7">
+        <v>1.379224933208697</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.002456848343627</v>
+        <v>0.8820946980203246</v>
       </c>
       <c r="C8">
-        <v>0.302463372876133</v>
+        <v>0.3393789174574806</v>
       </c>
       <c r="D8">
-        <v>0.04048633352662279</v>
+        <v>0.05975852018927696</v>
       </c>
       <c r="E8">
-        <v>0.05743589244516301</v>
+        <v>0.07061366703610616</v>
       </c>
       <c r="F8">
-        <v>1.768576145195851</v>
+        <v>1.453753191694048</v>
       </c>
       <c r="G8">
-        <v>0.0008438775544394799</v>
+        <v>0.04684438101290489</v>
       </c>
       <c r="H8">
-        <v>0.01579345005641936</v>
+        <v>0.00912957195570066</v>
       </c>
       <c r="I8">
-        <v>0.0169185279998656</v>
+        <v>0.007407167230677913</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9018584237374654</v>
+        <v>0.6793713012120151</v>
       </c>
       <c r="L8">
-        <v>0.09316538058993018</v>
+        <v>0.2931777745948878</v>
       </c>
       <c r="M8">
-        <v>1.28771812495151</v>
+        <v>0.2191291007427019</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1011596002514068</v>
       </c>
       <c r="O8">
-        <v>0.3716978208206783</v>
+        <v>1.215514522701056</v>
       </c>
       <c r="P8">
-        <v>1.666730488587788</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3673013418218929</v>
+      </c>
+      <c r="R8">
+        <v>1.346458187706332</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.340975466642391</v>
+        <v>1.171584974571232</v>
       </c>
       <c r="C9">
-        <v>0.3982282169817779</v>
+        <v>0.4559032293530265</v>
       </c>
       <c r="D9">
-        <v>0.05399398657742438</v>
+        <v>0.07931611789016557</v>
       </c>
       <c r="E9">
-        <v>0.07589415096762764</v>
+        <v>0.0903166028902227</v>
       </c>
       <c r="F9">
-        <v>2.041278095090235</v>
+        <v>1.670765653324722</v>
       </c>
       <c r="G9">
-        <v>0.0008339715970230857</v>
+        <v>0.03113204433804029</v>
       </c>
       <c r="H9">
-        <v>0.00731299445232575</v>
+        <v>0.003761729161926963</v>
       </c>
       <c r="I9">
-        <v>0.008331033238913044</v>
+        <v>0.003339127850694013</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.000246256078384</v>
+        <v>0.7417334295502442</v>
       </c>
       <c r="L9">
-        <v>0.1211850182309178</v>
+        <v>0.2986180914454408</v>
       </c>
       <c r="M9">
-        <v>1.715674543672094</v>
+        <v>0.2595594604432634</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1268651324861665</v>
       </c>
       <c r="O9">
-        <v>0.4921195490129904</v>
+        <v>1.62153714018396</v>
       </c>
       <c r="P9">
-        <v>1.652362408689385</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4859578512338061</v>
+      </c>
+      <c r="R9">
+        <v>1.30601855980516</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.582036097621028</v>
+        <v>1.362685920871485</v>
       </c>
       <c r="C10">
-        <v>0.467039503785287</v>
+        <v>0.5212269757960826</v>
       </c>
       <c r="D10">
-        <v>0.06242886589576813</v>
+        <v>0.09624269771744309</v>
       </c>
       <c r="E10">
-        <v>0.08519299697585225</v>
+        <v>0.1015186360629983</v>
       </c>
       <c r="F10">
-        <v>2.211797009970809</v>
+        <v>1.755591917373167</v>
       </c>
       <c r="G10">
-        <v>0.000827251222894847</v>
+        <v>0.03085387558051877</v>
       </c>
       <c r="H10">
-        <v>0.003687187086277355</v>
+        <v>0.00177130262533387</v>
       </c>
       <c r="I10">
-        <v>0.004568406247008383</v>
+        <v>0.002017613737508306</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.058421018829286</v>
+        <v>0.753104899108024</v>
       </c>
       <c r="L10">
-        <v>0.134027116172355</v>
+        <v>0.2893641587926723</v>
       </c>
       <c r="M10">
-        <v>2.020708663830987</v>
+        <v>0.279178503641873</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1373706830542574</v>
       </c>
       <c r="O10">
-        <v>0.569895115897971</v>
+        <v>1.876647873993477</v>
       </c>
       <c r="P10">
-        <v>1.623392950949139</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.557910865024617</v>
+      </c>
+      <c r="R10">
+        <v>1.23803377654194</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.632971370376225</v>
+        <v>1.385997646343753</v>
       </c>
       <c r="C11">
-        <v>0.4562583998026071</v>
+        <v>0.4717247032568537</v>
       </c>
       <c r="D11">
-        <v>0.05075910596378463</v>
+        <v>0.09023102861694809</v>
       </c>
       <c r="E11">
-        <v>0.054976572598747</v>
+        <v>0.0707416998523307</v>
       </c>
       <c r="F11">
-        <v>2.019628120410914</v>
+        <v>1.501642788776138</v>
       </c>
       <c r="G11">
-        <v>0.0008255603540754253</v>
+        <v>0.064801633771296</v>
       </c>
       <c r="H11">
-        <v>0.02221903090172717</v>
+        <v>0.02050120301371905</v>
       </c>
       <c r="I11">
-        <v>0.004375725580574752</v>
+        <v>0.002487910166800056</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9682131930983928</v>
+        <v>0.6413651379023904</v>
       </c>
       <c r="L11">
-        <v>0.08249263626208858</v>
+        <v>0.2445495678422382</v>
       </c>
       <c r="M11">
-        <v>2.054347044055589</v>
+        <v>0.2413852643407424</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08541872221875124</v>
       </c>
       <c r="O11">
-        <v>0.5093111637907199</v>
+        <v>1.843563786829549</v>
       </c>
       <c r="P11">
-        <v>1.464588171320798</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4892506672121826</v>
+      </c>
+      <c r="R11">
+        <v>1.089262234006398</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.629379659279266</v>
+        <v>1.378206748169902</v>
       </c>
       <c r="C12">
-        <v>0.430591516440245</v>
+        <v>0.4263960481563345</v>
       </c>
       <c r="D12">
-        <v>0.03984546934398736</v>
+        <v>0.07865440688164682</v>
       </c>
       <c r="E12">
-        <v>0.03420144539790648</v>
+        <v>0.04767164859301154</v>
       </c>
       <c r="F12">
-        <v>1.83569842863605</v>
+        <v>1.31713701142472</v>
       </c>
       <c r="G12">
-        <v>0.0008254038340459281</v>
+        <v>0.08980483685656537</v>
       </c>
       <c r="H12">
-        <v>0.06123099625866502</v>
+        <v>0.05946345764881045</v>
       </c>
       <c r="I12">
-        <v>0.004315645805011314</v>
+        <v>0.002497125391958122</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8882394066848391</v>
+        <v>0.5683638499480566</v>
       </c>
       <c r="L12">
-        <v>0.05189771280436517</v>
+        <v>0.2176465201365225</v>
       </c>
       <c r="M12">
-        <v>2.019252862743798</v>
+        <v>0.2140149804901839</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.05545973492424139</v>
       </c>
       <c r="O12">
-        <v>0.4453010187067576</v>
+        <v>1.783685524697916</v>
       </c>
       <c r="P12">
-        <v>1.35514345383347</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4229409667908044</v>
+      </c>
+      <c r="R12">
+        <v>1.016315965765035</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.578443488050169</v>
+        <v>1.347623103862873</v>
       </c>
       <c r="C13">
-        <v>0.3940236165566375</v>
+        <v>0.388579031242017</v>
       </c>
       <c r="D13">
-        <v>0.02944949044918843</v>
+        <v>0.06182776046556171</v>
       </c>
       <c r="E13">
-        <v>0.0196969032683576</v>
+        <v>0.02978697280147991</v>
       </c>
       <c r="F13">
-        <v>1.640280454452494</v>
+        <v>1.177796487438854</v>
       </c>
       <c r="G13">
-        <v>0.0008264550943492967</v>
+        <v>0.08496842896908774</v>
       </c>
       <c r="H13">
-        <v>0.1177115740098458</v>
+        <v>0.1156543645948886</v>
       </c>
       <c r="I13">
-        <v>0.004752271704149713</v>
+        <v>0.002614266007957333</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8061956810154385</v>
+        <v>0.5201523522796165</v>
       </c>
       <c r="L13">
-        <v>0.03548944177318347</v>
+        <v>0.2015178261039132</v>
       </c>
       <c r="M13">
-        <v>1.9269495626462</v>
+        <v>0.1937886331838641</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04033564166079362</v>
       </c>
       <c r="O13">
-        <v>0.3752752947372997</v>
+        <v>1.710197236870954</v>
       </c>
       <c r="P13">
-        <v>1.270380062966453</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3557505258660285</v>
+      </c>
+      <c r="R13">
+        <v>0.9852909507681549</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.520637852618023</v>
+        <v>1.314712130493803</v>
       </c>
       <c r="C14">
-        <v>0.3641426240799603</v>
+        <v>0.3649269442808816</v>
       </c>
       <c r="D14">
-        <v>0.02270720658756886</v>
+        <v>0.04879492247492578</v>
       </c>
       <c r="E14">
-        <v>0.0133757553481848</v>
+        <v>0.02110365492127464</v>
       </c>
       <c r="F14">
-        <v>1.499209486803622</v>
+        <v>1.096329195878056</v>
       </c>
       <c r="G14">
-        <v>0.0008277371649399394</v>
+        <v>0.06923129995199773</v>
       </c>
       <c r="H14">
-        <v>0.1677713875466935</v>
+        <v>0.1653857021529035</v>
       </c>
       <c r="I14">
-        <v>0.005417655745232786</v>
+        <v>0.002866917531918034</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7478439565337638</v>
+        <v>0.4951317638009058</v>
       </c>
       <c r="L14">
-        <v>0.03251257368056493</v>
+        <v>0.1939714903055823</v>
       </c>
       <c r="M14">
-        <v>1.836540678430055</v>
+        <v>0.182138747552635</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03837079153605139</v>
       </c>
       <c r="O14">
-        <v>0.324501391238897</v>
+        <v>1.65116037361426</v>
       </c>
       <c r="P14">
-        <v>1.223146063047167</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3087333408283257</v>
+      </c>
+      <c r="R14">
+        <v>0.9777566188365467</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.495390847571514</v>
+        <v>1.30024475796489</v>
       </c>
       <c r="C15">
-        <v>0.3550402966667718</v>
+        <v>0.3602309620695792</v>
       </c>
       <c r="D15">
-        <v>0.02110743775546453</v>
+        <v>0.04495231144188949</v>
       </c>
       <c r="E15">
-        <v>0.0122994760707309</v>
+        <v>0.01947262494494062</v>
       </c>
       <c r="F15">
-        <v>1.460354377311987</v>
+        <v>1.080938645330576</v>
       </c>
       <c r="G15">
-        <v>0.0008283297763112206</v>
+        <v>0.06115894923745202</v>
       </c>
       <c r="H15">
-        <v>0.180603058260246</v>
+        <v>0.1780611789405953</v>
       </c>
       <c r="I15">
-        <v>0.00584754917811825</v>
+        <v>0.003111163202571987</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7318672693729837</v>
+        <v>0.4916952405763482</v>
       </c>
       <c r="L15">
-        <v>0.03279065104907186</v>
+        <v>0.1933789679027349</v>
       </c>
       <c r="M15">
-        <v>1.802103723286848</v>
+        <v>0.1799151346103152</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03895712796810358</v>
       </c>
       <c r="O15">
-        <v>0.3105210635150186</v>
+        <v>1.632154628954652</v>
       </c>
       <c r="P15">
-        <v>1.214476349102156</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2964015053106479</v>
+      </c>
+      <c r="R15">
+        <v>0.9801859274763434</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.401052304849401</v>
+        <v>1.244772421217533</v>
       </c>
       <c r="C16">
-        <v>0.3342031322230241</v>
+        <v>0.3635405650665291</v>
       </c>
       <c r="D16">
-        <v>0.02006810201257991</v>
+        <v>0.03742024440205682</v>
       </c>
       <c r="E16">
-        <v>0.01181189087416001</v>
+        <v>0.01879193380569211</v>
       </c>
       <c r="F16">
-        <v>1.427487090457348</v>
+        <v>1.124648197221546</v>
       </c>
       <c r="G16">
-        <v>0.0008309883111406056</v>
+        <v>0.03434631235341001</v>
       </c>
       <c r="H16">
-        <v>0.1694549976176347</v>
+        <v>0.1661363093838588</v>
       </c>
       <c r="I16">
-        <v>0.007438868290042144</v>
+        <v>0.003717993312669421</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7227246494374313</v>
+        <v>0.5197413277894185</v>
       </c>
       <c r="L16">
-        <v>0.03125459813452736</v>
+        <v>0.2066232902448846</v>
       </c>
       <c r="M16">
-        <v>1.690547793276551</v>
+        <v>0.1865345339553137</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03814634598865663</v>
       </c>
       <c r="O16">
-        <v>0.2934645076332316</v>
+        <v>1.585199045736601</v>
       </c>
       <c r="P16">
-        <v>1.241223506850453</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2857257308207934</v>
+      </c>
+      <c r="R16">
+        <v>1.021635305329205</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.359265401934664</v>
+        <v>1.215855003898383</v>
       </c>
       <c r="C17">
-        <v>0.3340671716272254</v>
+        <v>0.3755773624696417</v>
       </c>
       <c r="D17">
-        <v>0.02270585118687052</v>
+        <v>0.0385895807642811</v>
       </c>
       <c r="E17">
-        <v>0.01410373803224552</v>
+        <v>0.02176368200266232</v>
       </c>
       <c r="F17">
-        <v>1.475857660190542</v>
+        <v>1.195453749503827</v>
       </c>
       <c r="G17">
-        <v>0.0008323570372256432</v>
+        <v>0.02918763874541774</v>
       </c>
       <c r="H17">
-        <v>0.1325361883567808</v>
+        <v>0.1287961522289436</v>
       </c>
       <c r="I17">
-        <v>0.008361829022695666</v>
+        <v>0.004099518879812969</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.74612562679809</v>
+        <v>0.5520119424172734</v>
       </c>
       <c r="L17">
-        <v>0.03016555313048297</v>
+        <v>0.220455704681541</v>
       </c>
       <c r="M17">
-        <v>1.652849891102647</v>
+        <v>0.1963285736683851</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03721461035659379</v>
       </c>
       <c r="O17">
-        <v>0.3066377647814136</v>
+        <v>1.572725930478157</v>
       </c>
       <c r="P17">
-        <v>1.285848982146526</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3014217095889578</v>
+      </c>
+      <c r="R17">
+        <v>1.060965230454979</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.360238456929835</v>
+        <v>1.214260900025835</v>
       </c>
       <c r="C18">
-        <v>0.3508534031518309</v>
+        <v>0.4015048740720886</v>
       </c>
       <c r="D18">
-        <v>0.02926245235617131</v>
+        <v>0.04632818618209456</v>
       </c>
       <c r="E18">
-        <v>0.0223941783077084</v>
+        <v>0.03139005135651551</v>
       </c>
       <c r="F18">
-        <v>1.607046356337804</v>
+        <v>1.318362129782386</v>
       </c>
       <c r="G18">
-        <v>0.00083269031269647</v>
+        <v>0.02782436585843229</v>
       </c>
       <c r="H18">
-        <v>0.07974513417117635</v>
+        <v>0.07594251191611789</v>
       </c>
       <c r="I18">
-        <v>0.008326902810481762</v>
+        <v>0.00388731883901805</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8043782224703619</v>
+        <v>0.6014500658322746</v>
       </c>
       <c r="L18">
-        <v>0.03690193371633477</v>
+        <v>0.2398280813468006</v>
       </c>
       <c r="M18">
-        <v>1.675096316029624</v>
+        <v>0.2137734771848194</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04371653868154723</v>
       </c>
       <c r="O18">
-        <v>0.3493722921616182</v>
+        <v>1.601413572863663</v>
       </c>
       <c r="P18">
-        <v>1.35939777025024</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3450160893439076</v>
+      </c>
+      <c r="R18">
+        <v>1.112633613398803</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.389329213138893</v>
+        <v>1.231493691402818</v>
       </c>
       <c r="C19">
-        <v>0.3827072616600162</v>
+        <v>0.4419396255495371</v>
       </c>
       <c r="D19">
-        <v>0.03994986254789268</v>
+        <v>0.06004071531210542</v>
       </c>
       <c r="E19">
-        <v>0.04009853435735344</v>
+        <v>0.0509885037931852</v>
       </c>
       <c r="F19">
-        <v>1.795004628644662</v>
+        <v>1.479159951505437</v>
       </c>
       <c r="G19">
-        <v>0.000832135106912319</v>
+        <v>0.02669917882201212</v>
       </c>
       <c r="H19">
-        <v>0.03362828580534938</v>
+        <v>0.03012190946717652</v>
       </c>
       <c r="I19">
-        <v>0.008079991376257034</v>
+        <v>0.003875705090542247</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8843004254327056</v>
+        <v>0.661695525914844</v>
       </c>
       <c r="L19">
-        <v>0.0607217723527782</v>
+        <v>0.2623737308659955</v>
       </c>
       <c r="M19">
-        <v>1.741267912164034</v>
+        <v>0.2363736283916182</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.06696244838997956</v>
       </c>
       <c r="O19">
-        <v>0.4160467849286533</v>
+        <v>1.663563476693668</v>
       </c>
       <c r="P19">
-        <v>1.455585199782654</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4116104255676376</v>
+      </c>
+      <c r="R19">
+        <v>1.175651200438836</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.508122002080484</v>
+        <v>1.312104017847474</v>
       </c>
       <c r="C20">
-        <v>0.452419064421747</v>
+        <v>0.5181372162432467</v>
       </c>
       <c r="D20">
-        <v>0.06111573213674149</v>
+        <v>0.09004747048511064</v>
       </c>
       <c r="E20">
-        <v>0.08284998394167076</v>
+        <v>0.097806455249696</v>
       </c>
       <c r="F20">
-        <v>2.150228421216298</v>
+        <v>1.748413409804641</v>
       </c>
       <c r="G20">
-        <v>0.0008290676976157291</v>
+        <v>0.02539544119589365</v>
       </c>
       <c r="H20">
-        <v>0.004511911159891469</v>
+        <v>0.002159255685163508</v>
       </c>
       <c r="I20">
-        <v>0.006299710329940922</v>
+        <v>0.003242557282065128</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.031861685936086</v>
+        <v>0.7553763504163769</v>
       </c>
       <c r="L20">
-        <v>0.1300365797836136</v>
+        <v>0.2936383637503397</v>
       </c>
       <c r="M20">
-        <v>1.934969405197592</v>
+        <v>0.2759609614509699</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1343815399164825</v>
       </c>
       <c r="O20">
-        <v>0.5485705795545215</v>
+        <v>1.824602488746223</v>
       </c>
       <c r="P20">
-        <v>1.618005415967033</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5408042641217961</v>
+      </c>
+      <c r="R20">
+        <v>1.262617719279682</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.704824518073451</v>
+        <v>1.420260471079729</v>
       </c>
       <c r="C21">
-        <v>0.5135298930421754</v>
+        <v>0.5225726176183514</v>
       </c>
       <c r="D21">
-        <v>0.07051575280068789</v>
+        <v>0.1226559445016875</v>
       </c>
       <c r="E21">
-        <v>0.09709634637492215</v>
+        <v>0.1189512181078101</v>
       </c>
       <c r="F21">
-        <v>2.333619849960854</v>
+        <v>1.704343208653484</v>
       </c>
       <c r="G21">
-        <v>0.0008237730789801748</v>
+        <v>0.0846572619331738</v>
       </c>
       <c r="H21">
-        <v>0.001945858754149432</v>
+        <v>0.0008381482413049035</v>
       </c>
       <c r="I21">
-        <v>0.003886537440474847</v>
+        <v>0.002548240559554493</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.099498649494869</v>
+        <v>0.7084714508431134</v>
       </c>
       <c r="L21">
-        <v>0.1522915078507765</v>
+        <v>0.2674195905222874</v>
       </c>
       <c r="M21">
-        <v>2.18963515793547</v>
+        <v>0.2691638584116944</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1527291369670891</v>
       </c>
       <c r="O21">
-        <v>0.6261577920156114</v>
+        <v>1.933247881729329</v>
       </c>
       <c r="P21">
-        <v>1.625699992980188</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5994959018803883</v>
+      </c>
+      <c r="R21">
+        <v>1.1529439377315</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.83486377469066</v>
+        <v>1.488141146115964</v>
       </c>
       <c r="C22">
-        <v>0.5499662887898467</v>
+        <v>0.5176942435107037</v>
       </c>
       <c r="D22">
-        <v>0.07531098609304365</v>
+        <v>0.144831970456778</v>
       </c>
       <c r="E22">
-        <v>0.1040224521658679</v>
+        <v>0.130877406387043</v>
       </c>
       <c r="F22">
-        <v>2.445113963520285</v>
+        <v>1.658719097225557</v>
       </c>
       <c r="G22">
-        <v>0.0008204271652202902</v>
+        <v>0.1719942490607167</v>
       </c>
       <c r="H22">
-        <v>0.0009342537789018834</v>
+        <v>0.0003670279870362503</v>
       </c>
       <c r="I22">
-        <v>0.002521436052134618</v>
+        <v>0.00191796005478917</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.141727402394324</v>
+        <v>0.6730010731766995</v>
       </c>
       <c r="L22">
-        <v>0.1630080636253908</v>
+        <v>0.2495574538260392</v>
       </c>
       <c r="M22">
-        <v>2.353146715458962</v>
+        <v>0.2622833094314529</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1608076254636117</v>
       </c>
       <c r="O22">
-        <v>0.6715036229461191</v>
+        <v>1.992172072030826</v>
       </c>
       <c r="P22">
-        <v>1.627213245091923</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6310629965379633</v>
+      </c>
+      <c r="R22">
+        <v>1.081421720230857</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.769381750957535</v>
+        <v>1.461716012477495</v>
       </c>
       <c r="C23">
-        <v>0.528968223620808</v>
+        <v>0.5262453653643604</v>
       </c>
       <c r="D23">
-        <v>0.07235826488075503</v>
+        <v>0.130034802019992</v>
       </c>
       <c r="E23">
-        <v>0.1001986964002413</v>
+        <v>0.1236320918417029</v>
       </c>
       <c r="F23">
-        <v>2.391305429402735</v>
+        <v>1.707877666210834</v>
       </c>
       <c r="G23">
-        <v>0.0008221816114730961</v>
+        <v>0.1068170309998635</v>
       </c>
       <c r="H23">
-        <v>0.001420450464624246</v>
+        <v>0.0005790820583564393</v>
       </c>
       <c r="I23">
-        <v>0.002868395170906979</v>
+        <v>0.001841402077991106</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.123216434416058</v>
+        <v>0.7041875515066707</v>
       </c>
       <c r="L23">
-        <v>0.157384704668786</v>
+        <v>0.2631905889470261</v>
       </c>
       <c r="M23">
-        <v>2.267661076585256</v>
+        <v>0.2710168218163389</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1568153190518871</v>
       </c>
       <c r="O23">
-        <v>0.6474308721089059</v>
+        <v>1.976785075095194</v>
       </c>
       <c r="P23">
-        <v>1.630976283156414</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6163207231967931</v>
+      </c>
+      <c r="R23">
+        <v>1.130853154154273</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.515720333938049</v>
+        <v>1.318236978706665</v>
       </c>
       <c r="C24">
-        <v>0.4532569194381608</v>
+        <v>0.5202518424471805</v>
       </c>
       <c r="D24">
-        <v>0.0619256524598697</v>
+        <v>0.09102186358737185</v>
       </c>
       <c r="E24">
-        <v>0.08605722137129135</v>
+        <v>0.1012154871224169</v>
       </c>
       <c r="F24">
-        <v>2.180575365882802</v>
+        <v>1.775452211483682</v>
       </c>
       <c r="G24">
-        <v>0.0008289926688404396</v>
+        <v>0.02508015730375046</v>
       </c>
       <c r="H24">
-        <v>0.004264295394547757</v>
+        <v>0.001956172223335439</v>
       </c>
       <c r="I24">
-        <v>0.005721394969556037</v>
+        <v>0.002605811815668879</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.047368378869692</v>
+        <v>0.7678546086995439</v>
       </c>
       <c r="L24">
-        <v>0.1360957045074898</v>
+        <v>0.2983253353182889</v>
       </c>
       <c r="M24">
-        <v>1.942995625664537</v>
+        <v>0.2806207202854196</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1403627322055314</v>
       </c>
       <c r="O24">
-        <v>0.5564922781238977</v>
+        <v>1.832797578897498</v>
       </c>
       <c r="P24">
-        <v>1.638673027824211</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5487948091014871</v>
+      </c>
+      <c r="R24">
+        <v>1.277518936013898</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.243486751270325</v>
+        <v>1.091817189071719</v>
       </c>
       <c r="C25">
-        <v>0.37407901204989</v>
+        <v>0.4303896461422596</v>
       </c>
       <c r="D25">
-        <v>0.05087199514361629</v>
+        <v>0.07354447889969151</v>
       </c>
       <c r="E25">
-        <v>0.07104392116436742</v>
+        <v>0.08480110362695825</v>
       </c>
       <c r="F25">
-        <v>1.958069081312772</v>
+        <v>1.616118441015502</v>
       </c>
       <c r="G25">
-        <v>0.0008366231242856736</v>
+        <v>0.03366059099128149</v>
       </c>
       <c r="H25">
-        <v>0.009259935603895514</v>
+        <v>0.004935377554664999</v>
       </c>
       <c r="I25">
-        <v>0.01078975492524847</v>
+        <v>0.004740687257779541</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9672905962501162</v>
+        <v>0.725727123471863</v>
       </c>
       <c r="L25">
-        <v>0.1134217928734884</v>
+        <v>0.2976441975384958</v>
       </c>
       <c r="M25">
-        <v>1.596611899423976</v>
+        <v>0.2483275737020065</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1199151409138537</v>
       </c>
       <c r="O25">
-        <v>0.4592163084309249</v>
+        <v>1.516881279068855</v>
       </c>
       <c r="P25">
-        <v>1.648876351802556</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.4546373842310985</v>
+      </c>
+      <c r="R25">
+        <v>1.318535970767122</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
